--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.556278333333333</v>
+        <v>3.677841666666667</v>
       </c>
       <c r="H2">
-        <v>7.668835</v>
+        <v>11.033525</v>
       </c>
       <c r="I2">
-        <v>0.01627371717322184</v>
+        <v>0.01623472400501287</v>
       </c>
       <c r="J2">
-        <v>0.01630406456914158</v>
+        <v>0.01630061125742823</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6025733333333334</v>
+        <v>0.492713</v>
       </c>
       <c r="N2">
-        <v>1.80772</v>
+        <v>1.478139</v>
       </c>
       <c r="O2">
-        <v>0.1746913437082048</v>
+        <v>0.1152266508680163</v>
       </c>
       <c r="P2">
-        <v>0.1910715797566779</v>
+        <v>0.1206797862160232</v>
       </c>
       <c r="Q2">
-        <v>1.540345156244445</v>
+        <v>1.812120401108334</v>
       </c>
       <c r="R2">
-        <v>13.8631064062</v>
+        <v>16.309083609975</v>
       </c>
       <c r="S2">
-        <v>0.002842877520117411</v>
+        <v>0.001870672874864222</v>
       </c>
       <c r="T2">
-        <v>0.003115243373680762</v>
+        <v>0.001967154281736939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.556278333333333</v>
+        <v>3.677841666666667</v>
       </c>
       <c r="H3">
-        <v>7.668835</v>
+        <v>11.033525</v>
       </c>
       <c r="I3">
-        <v>0.01627371717322184</v>
+        <v>0.01623472400501287</v>
       </c>
       <c r="J3">
-        <v>0.01630406456914158</v>
+        <v>0.01630061125742823</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.954557</v>
       </c>
       <c r="O3">
-        <v>0.09224484155514839</v>
+        <v>0.07441140932795973</v>
       </c>
       <c r="P3">
-        <v>0.1008943387016768</v>
+        <v>0.07793295129281373</v>
       </c>
       <c r="Q3">
-        <v>0.8133711256772221</v>
+        <v>1.170236502602778</v>
       </c>
       <c r="R3">
-        <v>7.320340131095</v>
+        <v>10.532128523425</v>
       </c>
       <c r="S3">
-        <v>0.001501166462157146</v>
+        <v>0.001208048693263466</v>
       </c>
       <c r="T3">
-        <v>0.001644987812852979</v>
+        <v>0.001270354743168245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.556278333333333</v>
+        <v>3.677841666666667</v>
       </c>
       <c r="H4">
-        <v>7.668835</v>
+        <v>11.033525</v>
       </c>
       <c r="I4">
-        <v>0.01627371717322184</v>
+        <v>0.01623472400501287</v>
       </c>
       <c r="J4">
-        <v>0.01630406456914158</v>
+        <v>0.01630061125742823</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.180267666666666</v>
+        <v>1.855888666666666</v>
       </c>
       <c r="N4">
-        <v>3.540802999999999</v>
+        <v>5.567665999999999</v>
       </c>
       <c r="O4">
-        <v>0.3421700450711629</v>
+        <v>0.4340210943163836</v>
       </c>
       <c r="P4">
-        <v>0.3742542112811632</v>
+        <v>0.4545612710321699</v>
       </c>
       <c r="Q4">
-        <v>3.017092663833888</v>
+        <v>6.825664666961111</v>
       </c>
       <c r="R4">
-        <v>27.15383397450499</v>
+        <v>61.43098200265</v>
       </c>
       <c r="S4">
-        <v>0.005568378538636673</v>
+        <v>0.007046212678580147</v>
       </c>
       <c r="T4">
-        <v>0.006101864826001239</v>
+        <v>0.007409626571777872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.556278333333333</v>
+        <v>3.677841666666667</v>
       </c>
       <c r="H5">
-        <v>7.668835</v>
+        <v>11.033525</v>
       </c>
       <c r="I5">
-        <v>0.01627371717322184</v>
+        <v>0.01623472400501287</v>
       </c>
       <c r="J5">
-        <v>0.01630406456914158</v>
+        <v>0.01630061125742823</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.887123</v>
+        <v>0.579661</v>
       </c>
       <c r="N5">
-        <v>1.774246</v>
+        <v>1.159322</v>
       </c>
       <c r="O5">
-        <v>0.2571848110953916</v>
+        <v>0.1355604493260888</v>
       </c>
       <c r="P5">
-        <v>0.1875334598814898</v>
+        <v>0.0946505918019431</v>
       </c>
       <c r="Q5">
-        <v>2.267733303901667</v>
+        <v>2.131901378341667</v>
       </c>
       <c r="R5">
-        <v>13.60639982341</v>
+        <v>12.79140827005</v>
       </c>
       <c r="S5">
-        <v>0.004185352877014888</v>
+        <v>0.002200786480804585</v>
       </c>
       <c r="T5">
-        <v>0.003057557638782332</v>
+        <v>0.001542862502248998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.556278333333333</v>
+        <v>3.677841666666667</v>
       </c>
       <c r="H6">
-        <v>7.668835</v>
+        <v>11.033525</v>
       </c>
       <c r="I6">
-        <v>0.01627371717322184</v>
+        <v>0.01623472400501287</v>
       </c>
       <c r="J6">
-        <v>0.01630406456914158</v>
+        <v>0.01630061125742823</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4612103333333333</v>
+        <v>1.029585</v>
       </c>
       <c r="N6">
-        <v>1.383631</v>
+        <v>3.088755</v>
       </c>
       <c r="O6">
-        <v>0.1337089585700922</v>
+        <v>0.2407803961615516</v>
       </c>
       <c r="P6">
-        <v>0.1462464103789923</v>
+        <v>0.2521753996570502</v>
       </c>
       <c r="Q6">
-        <v>1.178981982209444</v>
+        <v>3.786650612375</v>
       </c>
       <c r="R6">
-        <v>10.610837839885</v>
+        <v>34.079855511375</v>
       </c>
       <c r="S6">
-        <v>0.002175941775295717</v>
+        <v>0.003909003277500451</v>
       </c>
       <c r="T6">
-        <v>0.002384410917824268</v>
+        <v>0.004110613158496175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>19.299871</v>
       </c>
       <c r="I7">
-        <v>0.04095545700665956</v>
+        <v>0.02839782200315417</v>
       </c>
       <c r="J7">
-        <v>0.04103183116602496</v>
+        <v>0.0285130721586721</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.6025733333333334</v>
+        <v>0.492713</v>
       </c>
       <c r="N7">
-        <v>1.80772</v>
+        <v>1.478139</v>
       </c>
       <c r="O7">
-        <v>0.1746913437082048</v>
+        <v>0.1152266508680163</v>
       </c>
       <c r="P7">
-        <v>0.1910715797566779</v>
+        <v>0.1206797862160232</v>
       </c>
       <c r="Q7">
-        <v>3.876529200457778</v>
+        <v>3.169765780007666</v>
       </c>
       <c r="R7">
-        <v>34.88876280412001</v>
+        <v>28.527892020069</v>
       </c>
       <c r="S7">
-        <v>0.007154563816676971</v>
+        <v>0.003272185921369518</v>
       </c>
       <c r="T7">
-        <v>0.007840016801201681</v>
+        <v>0.00344095145247059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>19.299871</v>
       </c>
       <c r="I8">
-        <v>0.04095545700665956</v>
+        <v>0.02839782200315417</v>
       </c>
       <c r="J8">
-        <v>0.04103183116602496</v>
+        <v>0.0285130721586721</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.954557</v>
       </c>
       <c r="O8">
-        <v>0.09224484155514839</v>
+        <v>0.07441140932795973</v>
       </c>
       <c r="P8">
-        <v>0.1008943387016768</v>
+        <v>0.07793295129281373</v>
       </c>
       <c r="Q8">
         <v>2.046980773571889</v>
@@ -948,10 +948,10 @@
         <v>18.422826962147</v>
       </c>
       <c r="S8">
-        <v>0.003777929642398003</v>
+        <v>0.002113121957099246</v>
       </c>
       <c r="T8">
-        <v>0.004139879471214941</v>
+        <v>0.002222107863750276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>19.299871</v>
       </c>
       <c r="I9">
-        <v>0.04095545700665956</v>
+        <v>0.02839782200315417</v>
       </c>
       <c r="J9">
-        <v>0.04103183116602496</v>
+        <v>0.0285130721586721</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.180267666666666</v>
+        <v>1.855888666666666</v>
       </c>
       <c r="N9">
-        <v>3.540802999999999</v>
+        <v>5.567665999999999</v>
       </c>
       <c r="O9">
-        <v>0.3421700450711629</v>
+        <v>0.4340210943163836</v>
       </c>
       <c r="P9">
-        <v>0.3742542112811632</v>
+        <v>0.4545612710321699</v>
       </c>
       <c r="Q9">
-        <v>7.593004570712554</v>
+        <v>11.93947061900955</v>
       </c>
       <c r="R9">
-        <v>68.33704113641299</v>
+        <v>107.455235571086</v>
       </c>
       <c r="S9">
-        <v>0.01401373056987878</v>
+        <v>0.01232525378201085</v>
       </c>
       <c r="T9">
-        <v>0.01535633561046252</v>
+        <v>0.01296093832147797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>19.299871</v>
       </c>
       <c r="I10">
-        <v>0.04095545700665956</v>
+        <v>0.02839782200315417</v>
       </c>
       <c r="J10">
-        <v>0.04103183116602496</v>
+        <v>0.0285130721586721</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.887123</v>
+        <v>0.579661</v>
       </c>
       <c r="N10">
-        <v>1.774246</v>
+        <v>1.159322</v>
       </c>
       <c r="O10">
-        <v>0.2571848110953916</v>
+        <v>0.1355604493260888</v>
       </c>
       <c r="P10">
-        <v>0.1875334598814898</v>
+        <v>0.0946505918019431</v>
       </c>
       <c r="Q10">
-        <v>5.707119820377666</v>
+        <v>3.729127507910333</v>
       </c>
       <c r="R10">
-        <v>34.242718922266</v>
+        <v>22.374765047462</v>
       </c>
       <c r="S10">
-        <v>0.01053312147358317</v>
+        <v>0.003849621510629872</v>
       </c>
       <c r="T10">
-        <v>0.007694841263837806</v>
+        <v>0.002698779153909821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>19.299871</v>
       </c>
       <c r="I11">
-        <v>0.04095545700665956</v>
+        <v>0.02839782200315417</v>
       </c>
       <c r="J11">
-        <v>0.04103183116602496</v>
+        <v>0.0285130721586721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4612103333333333</v>
+        <v>1.029585</v>
       </c>
       <c r="N11">
-        <v>1.383631</v>
+        <v>3.088755</v>
       </c>
       <c r="O11">
-        <v>0.1337089585700922</v>
+        <v>0.2407803961615516</v>
       </c>
       <c r="P11">
-        <v>0.1462464103789923</v>
+        <v>0.2521753996570502</v>
       </c>
       <c r="Q11">
-        <v>2.967099979066778</v>
+        <v>6.623619227844999</v>
       </c>
       <c r="R11">
-        <v>26.703899811601</v>
+        <v>59.612573050605</v>
       </c>
       <c r="S11">
-        <v>0.005476111504122637</v>
+        <v>0.006837638832044689</v>
       </c>
       <c r="T11">
-        <v>0.006000758019308014</v>
+        <v>0.007190295367063448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>88.38730466666668</v>
+        <v>91.71289833333333</v>
       </c>
       <c r="H12">
-        <v>265.161914</v>
+        <v>275.138695</v>
       </c>
       <c r="I12">
-        <v>0.5626891168666652</v>
+        <v>0.4048389591199923</v>
       </c>
       <c r="J12">
-        <v>0.5637384253453317</v>
+        <v>0.4064819637487667</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6025733333333334</v>
+        <v>0.492713</v>
       </c>
       <c r="N12">
-        <v>1.80772</v>
+        <v>1.478139</v>
       </c>
       <c r="O12">
-        <v>0.1746913437082048</v>
+        <v>0.1152266508680163</v>
       </c>
       <c r="P12">
-        <v>0.1910715797566779</v>
+        <v>0.1206797862160232</v>
       </c>
       <c r="Q12">
-        <v>53.25983279734223</v>
+        <v>45.18813727651167</v>
       </c>
       <c r="R12">
-        <v>479.3384951760801</v>
+        <v>406.693235488605</v>
       </c>
       <c r="S12">
-        <v>0.09829691791542085</v>
+        <v>0.04664823740029049</v>
       </c>
       <c r="T12">
-        <v>0.1077143915002746</v>
+        <v>0.04905415648587044</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>88.38730466666668</v>
+        <v>91.71289833333333</v>
       </c>
       <c r="H13">
-        <v>265.161914</v>
+        <v>275.138695</v>
       </c>
       <c r="I13">
-        <v>0.5626891168666652</v>
+        <v>0.4048389591199923</v>
       </c>
       <c r="J13">
-        <v>0.5637384253453317</v>
+        <v>0.4064819637487667</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.954557</v>
       </c>
       <c r="O13">
-        <v>0.09224484155514839</v>
+        <v>0.07441140932795973</v>
       </c>
       <c r="P13">
-        <v>0.1008943387016768</v>
+        <v>0.07793295129281373</v>
       </c>
       <c r="Q13">
-        <v>28.12357346023311</v>
+        <v>29.18172969812388</v>
       </c>
       <c r="R13">
-        <v>253.112161142098</v>
+        <v>262.635567283115</v>
       </c>
       <c r="S13">
-        <v>0.05190516843017191</v>
+        <v>0.0301246374989829</v>
       </c>
       <c r="T13">
-        <v>0.05687801562594184</v>
+        <v>0.03167833908223991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>88.38730466666668</v>
+        <v>91.71289833333333</v>
       </c>
       <c r="H14">
-        <v>265.161914</v>
+        <v>275.138695</v>
       </c>
       <c r="I14">
-        <v>0.5626891168666652</v>
+        <v>0.4048389591199923</v>
       </c>
       <c r="J14">
-        <v>0.5637384253453317</v>
+        <v>0.4064819637487667</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.180267666666666</v>
+        <v>1.855888666666666</v>
       </c>
       <c r="N14">
-        <v>3.540802999999999</v>
+        <v>5.567665999999999</v>
       </c>
       <c r="O14">
-        <v>0.3421700450711629</v>
+        <v>0.4340210943163836</v>
       </c>
       <c r="P14">
-        <v>0.3742542112811632</v>
+        <v>0.4545612710321699</v>
       </c>
       <c r="Q14">
-        <v>104.3206778418824</v>
+        <v>170.2089286039855</v>
       </c>
       <c r="R14">
-        <v>938.886100576942</v>
+        <v>1531.88035743587</v>
       </c>
       <c r="S14">
-        <v>0.1925353604793197</v>
+        <v>0.1757086480591647</v>
       </c>
       <c r="T14">
-        <v>0.210981479746502</v>
+        <v>0.1847709580932918</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>88.38730466666668</v>
+        <v>91.71289833333333</v>
       </c>
       <c r="H15">
-        <v>265.161914</v>
+        <v>275.138695</v>
       </c>
       <c r="I15">
-        <v>0.5626891168666652</v>
+        <v>0.4048389591199923</v>
       </c>
       <c r="J15">
-        <v>0.5637384253453317</v>
+        <v>0.4064819637487667</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.887123</v>
+        <v>0.579661</v>
       </c>
       <c r="N15">
-        <v>1.774246</v>
+        <v>1.159322</v>
       </c>
       <c r="O15">
-        <v>0.2571848110953916</v>
+        <v>0.1355604493260888</v>
       </c>
       <c r="P15">
-        <v>0.1875334598814898</v>
+        <v>0.0946505918019431</v>
       </c>
       <c r="Q15">
-        <v>78.41041087780735</v>
+        <v>53.16239036079833</v>
       </c>
       <c r="R15">
-        <v>470.462465266844</v>
+        <v>318.97434216479</v>
       </c>
       <c r="S15">
-        <v>0.144715094226786</v>
+        <v>0.05488015120301227</v>
       </c>
       <c r="T15">
-        <v>0.105719817373153</v>
+        <v>0.03847375842563674</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>88.38730466666668</v>
+        <v>91.71289833333333</v>
       </c>
       <c r="H16">
-        <v>265.161914</v>
+        <v>275.138695</v>
       </c>
       <c r="I16">
-        <v>0.5626891168666652</v>
+        <v>0.4048389591199923</v>
       </c>
       <c r="J16">
-        <v>0.5637384253453317</v>
+        <v>0.4064819637487667</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.4612103333333333</v>
+        <v>1.029585</v>
       </c>
       <c r="N16">
-        <v>1.383631</v>
+        <v>3.088755</v>
       </c>
       <c r="O16">
-        <v>0.1337089585700922</v>
+        <v>0.2407803961615516</v>
       </c>
       <c r="P16">
-        <v>0.1462464103789923</v>
+        <v>0.2521753996570502</v>
       </c>
       <c r="Q16">
-        <v>40.76513824774823</v>
+        <v>94.426224430525</v>
       </c>
       <c r="R16">
-        <v>366.8862442297341</v>
+        <v>849.8360198747249</v>
       </c>
       <c r="S16">
-        <v>0.07523657581496673</v>
+        <v>0.09747728495854195</v>
       </c>
       <c r="T16">
-        <v>0.08244472109946031</v>
+        <v>0.1025047516617278</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8771385</v>
+        <v>2.747052</v>
       </c>
       <c r="H17">
-        <v>1.754277</v>
+        <v>5.494104</v>
       </c>
       <c r="I17">
-        <v>0.005584017860891795</v>
+        <v>0.01212603344282592</v>
       </c>
       <c r="J17">
-        <v>0.003729620663394112</v>
+        <v>0.008116830615046547</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.6025733333333334</v>
+        <v>0.492713</v>
       </c>
       <c r="N17">
-        <v>1.80772</v>
+        <v>1.478139</v>
       </c>
       <c r="O17">
-        <v>0.1746913437082048</v>
+        <v>0.1152266508680163</v>
       </c>
       <c r="P17">
-        <v>0.1910715797566779</v>
+        <v>0.1206797862160232</v>
       </c>
       <c r="Q17">
-        <v>0.5285402697400001</v>
+        <v>1.353508232076</v>
       </c>
       <c r="R17">
-        <v>3.171241618440001</v>
+        <v>8.121049392456001</v>
       </c>
       <c r="S17">
-        <v>0.0009754795834098032</v>
+        <v>0.001397242221930392</v>
       </c>
       <c r="T17">
-        <v>0.0007126245120478621</v>
+        <v>0.0009795373833754891</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8771385</v>
+        <v>2.747052</v>
       </c>
       <c r="H18">
-        <v>1.754277</v>
+        <v>5.494104</v>
       </c>
       <c r="I18">
-        <v>0.005584017860891795</v>
+        <v>0.01212603344282592</v>
       </c>
       <c r="J18">
-        <v>0.003729620663394112</v>
+        <v>0.008116830615046547</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.954557</v>
       </c>
       <c r="O18">
-        <v>0.09224484155514839</v>
+        <v>0.07441140932795973</v>
       </c>
       <c r="P18">
-        <v>0.1008943387016768</v>
+        <v>0.07793295129281373</v>
       </c>
       <c r="Q18">
-        <v>0.2790928983815</v>
+        <v>0.8740725719879999</v>
       </c>
       <c r="R18">
-        <v>1.674557390289</v>
+        <v>5.244435431928</v>
       </c>
       <c r="S18">
-        <v>0.0005150968428190823</v>
+        <v>0.0009023152380386479</v>
       </c>
       <c r="T18">
-        <v>0.0003762976104412581</v>
+        <v>0.0006325685649744418</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8771385</v>
+        <v>2.747052</v>
       </c>
       <c r="H19">
-        <v>1.754277</v>
+        <v>5.494104</v>
       </c>
       <c r="I19">
-        <v>0.005584017860891795</v>
+        <v>0.01212603344282592</v>
       </c>
       <c r="J19">
-        <v>0.003729620663394112</v>
+        <v>0.008116830615046547</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.180267666666666</v>
+        <v>1.855888666666666</v>
       </c>
       <c r="N19">
-        <v>3.540802999999999</v>
+        <v>5.567665999999999</v>
       </c>
       <c r="O19">
-        <v>0.3421700450711629</v>
+        <v>0.4340210943163836</v>
       </c>
       <c r="P19">
-        <v>0.3742542112811632</v>
+        <v>0.4545612710321699</v>
       </c>
       <c r="Q19">
-        <v>1.0352582107385</v>
+        <v>5.098222673543999</v>
       </c>
       <c r="R19">
-        <v>6.211549264431</v>
+        <v>30.58933604126399</v>
       </c>
       <c r="S19">
-        <v>0.001910683643139524</v>
+        <v>0.005262954304572368</v>
       </c>
       <c r="T19">
-        <v>0.001395826239756492</v>
+        <v>0.003689596841128388</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8771385</v>
+        <v>2.747052</v>
       </c>
       <c r="H20">
-        <v>1.754277</v>
+        <v>5.494104</v>
       </c>
       <c r="I20">
-        <v>0.005584017860891795</v>
+        <v>0.01212603344282592</v>
       </c>
       <c r="J20">
-        <v>0.003729620663394112</v>
+        <v>0.008116830615046547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.887123</v>
+        <v>0.579661</v>
       </c>
       <c r="N20">
-        <v>1.774246</v>
+        <v>1.159322</v>
       </c>
       <c r="O20">
-        <v>0.2571848110953916</v>
+        <v>0.1355604493260888</v>
       </c>
       <c r="P20">
-        <v>0.1875334598814898</v>
+        <v>0.0946505918019431</v>
       </c>
       <c r="Q20">
-        <v>0.7781297375355001</v>
+        <v>1.592358909372</v>
       </c>
       <c r="R20">
-        <v>3.112518950142</v>
+        <v>6.369435637488</v>
       </c>
       <c r="S20">
-        <v>0.001436124578706749</v>
+        <v>0.001643810542052661</v>
       </c>
       <c r="T20">
-        <v>0.0006994286670517952</v>
+        <v>0.0007682628212702855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8771385</v>
+        <v>2.747052</v>
       </c>
       <c r="H21">
-        <v>1.754277</v>
+        <v>5.494104</v>
       </c>
       <c r="I21">
-        <v>0.005584017860891795</v>
+        <v>0.01212603344282592</v>
       </c>
       <c r="J21">
-        <v>0.003729620663394112</v>
+        <v>0.008116830615046547</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.4612103333333333</v>
+        <v>1.029585</v>
       </c>
       <c r="N21">
-        <v>1.383631</v>
+        <v>3.088755</v>
       </c>
       <c r="O21">
-        <v>0.1337089585700922</v>
+        <v>0.2407803961615516</v>
       </c>
       <c r="P21">
-        <v>0.1462464103789923</v>
+        <v>0.2521753996570502</v>
       </c>
       <c r="Q21">
-        <v>0.4045453399645</v>
+        <v>2.82832353342</v>
       </c>
       <c r="R21">
-        <v>2.427272039787</v>
+        <v>16.96994120052</v>
       </c>
       <c r="S21">
-        <v>0.0007466332128166361</v>
+        <v>0.002919711136231848</v>
       </c>
       <c r="T21">
-        <v>0.0005454436340967049</v>
+        <v>0.002046865004297944</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>58.82616266666667</v>
+        <v>121.9705986666667</v>
       </c>
       <c r="H22">
-        <v>176.478488</v>
+        <v>365.911796</v>
       </c>
       <c r="I22">
-        <v>0.3744976910925615</v>
+        <v>0.5384024614290148</v>
       </c>
       <c r="J22">
-        <v>0.3751960582561077</v>
+        <v>0.5405875222200865</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.6025733333333334</v>
+        <v>0.492713</v>
       </c>
       <c r="N22">
-        <v>1.80772</v>
+        <v>1.478139</v>
       </c>
       <c r="O22">
-        <v>0.1746913437082048</v>
+        <v>0.1152266508680163</v>
       </c>
       <c r="P22">
-        <v>0.1910715797566779</v>
+        <v>0.1206797862160232</v>
       </c>
       <c r="Q22">
-        <v>35.44707692526223</v>
+        <v>60.09649958084933</v>
       </c>
       <c r="R22">
-        <v>319.02369232736</v>
+        <v>540.868496227644</v>
       </c>
       <c r="S22">
-        <v>0.06542150487257978</v>
+        <v>0.06203831244956173</v>
       </c>
       <c r="T22">
-        <v>0.07168930356947306</v>
+        <v>0.06523798661256971</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>58.82616266666667</v>
+        <v>121.9705986666667</v>
       </c>
       <c r="H23">
-        <v>176.478488</v>
+        <v>365.911796</v>
       </c>
       <c r="I23">
-        <v>0.3744976910925615</v>
+        <v>0.5384024614290148</v>
       </c>
       <c r="J23">
-        <v>0.3751960582561077</v>
+        <v>0.5405875222200865</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.954557</v>
       </c>
       <c r="O23">
-        <v>0.09224484155514839</v>
+        <v>0.07441140932795973</v>
       </c>
       <c r="P23">
-        <v>0.1008943387016768</v>
+        <v>0.07793295129281373</v>
       </c>
       <c r="Q23">
-        <v>18.71764178553511</v>
+        <v>38.80929625048577</v>
       </c>
       <c r="R23">
-        <v>168.458776069816</v>
+        <v>349.283666254372</v>
       </c>
       <c r="S23">
-        <v>0.03454548017760225</v>
+        <v>0.04006328594057547</v>
       </c>
       <c r="T23">
-        <v>0.03785515818122579</v>
+        <v>0.04212958103868086</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>58.82616266666667</v>
+        <v>121.9705986666667</v>
       </c>
       <c r="H24">
-        <v>176.478488</v>
+        <v>365.911796</v>
       </c>
       <c r="I24">
-        <v>0.3744976910925615</v>
+        <v>0.5384024614290148</v>
       </c>
       <c r="J24">
-        <v>0.3751960582561077</v>
+        <v>0.5405875222200865</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.180267666666666</v>
+        <v>1.855888666666666</v>
       </c>
       <c r="N24">
-        <v>3.540802999999999</v>
+        <v>5.567665999999999</v>
       </c>
       <c r="O24">
-        <v>0.3421700450711629</v>
+        <v>0.4340210943163836</v>
       </c>
       <c r="P24">
-        <v>0.3742542112811632</v>
+        <v>0.4545612710321699</v>
       </c>
       <c r="Q24">
-        <v>69.43061774954043</v>
+        <v>226.3638517320151</v>
       </c>
       <c r="R24">
-        <v>624.8755597458639</v>
+        <v>2037.274665588136</v>
       </c>
       <c r="S24">
-        <v>0.1281418918401882</v>
+        <v>0.2336780254920555</v>
       </c>
       <c r="T24">
-        <v>0.1404187048584409</v>
+        <v>0.2457301512044939</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>58.82616266666667</v>
+        <v>121.9705986666667</v>
       </c>
       <c r="H25">
-        <v>176.478488</v>
+        <v>365.911796</v>
       </c>
       <c r="I25">
-        <v>0.3744976910925615</v>
+        <v>0.5384024614290148</v>
       </c>
       <c r="J25">
-        <v>0.3751960582561077</v>
+        <v>0.5405875222200865</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.887123</v>
+        <v>0.579661</v>
       </c>
       <c r="N25">
-        <v>1.774246</v>
+        <v>1.159322</v>
       </c>
       <c r="O25">
-        <v>0.2571848110953916</v>
+        <v>0.1355604493260888</v>
       </c>
       <c r="P25">
-        <v>0.1875334598814898</v>
+        <v>0.0946505918019431</v>
       </c>
       <c r="Q25">
-        <v>52.18604190334133</v>
+        <v>70.70159919371866</v>
       </c>
       <c r="R25">
-        <v>313.116251420048</v>
+        <v>424.209595162312</v>
       </c>
       <c r="S25">
-        <v>0.09631511793930075</v>
+        <v>0.07298607958958947</v>
       </c>
       <c r="T25">
-        <v>0.07036181493866489</v>
+        <v>0.05116692889887726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.82616266666667</v>
+        <v>121.9705986666667</v>
       </c>
       <c r="H26">
-        <v>176.478488</v>
+        <v>365.911796</v>
       </c>
       <c r="I26">
-        <v>0.3744976910925615</v>
+        <v>0.5384024614290148</v>
       </c>
       <c r="J26">
-        <v>0.3751960582561077</v>
+        <v>0.5405875222200865</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.4612103333333333</v>
+        <v>1.029585</v>
       </c>
       <c r="N26">
-        <v>1.383631</v>
+        <v>3.088755</v>
       </c>
       <c r="O26">
-        <v>0.1337089585700922</v>
+        <v>0.2407803961615516</v>
       </c>
       <c r="P26">
-        <v>0.1462464103789923</v>
+        <v>0.2521753996570502</v>
       </c>
       <c r="Q26">
-        <v>27.13123409221422</v>
+        <v>125.57909882822</v>
       </c>
       <c r="R26">
-        <v>244.181106829928</v>
+        <v>1130.21188945398</v>
       </c>
       <c r="S26">
-        <v>0.05007369626289051</v>
+        <v>0.1296367579572327</v>
       </c>
       <c r="T26">
-        <v>0.05487107670830304</v>
+        <v>0.1363228744654648</v>
       </c>
     </row>
   </sheetData>
